--- a/tests/eindhoven-500/reference/resultaten/werk/alle groepen/bestemmingen/restdag/Ontpl_totaalproduct_OV.xlsx
+++ b/tests/eindhoven-500/reference/resultaten/werk/alle groepen/bestemmingen/restdag/Ontpl_totaalproduct_OV.xlsx
@@ -4035,7 +4035,7 @@
         <v>9122755.910063086</v>
       </c>
       <c r="E216">
-        <v>3275775.255680807</v>
+        <v>3275775.255680808</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -6800,7 +6800,7 @@
         <v>115644.5887782754</v>
       </c>
       <c r="C379">
-        <v>141179.9102628508</v>
+        <v>141179.9102628509</v>
       </c>
       <c r="D379">
         <v>197152.4908909589</v>
